--- a/Data Collection/Authors/Peter Bichsel/articles_Bichsel_Jan_1.xlsx
+++ b/Data Collection/Authors/Peter Bichsel/articles_Bichsel_Jan_1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Peter Bichsel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_B136DDC16681EDA921D272526E7C16E741A62CC9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EB38D5C8-737A-444A-ACA5-759111EBD364}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="203">
   <si>
     <t>title</t>
   </si>
@@ -25,18 +31,12 @@
     <t>date</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -73,18 +73,6 @@
     <t>Bote der Urschweiz</t>
   </si>
   <si>
-    <t>10 Jan 2021</t>
-  </si>
-  <si>
-    <t>3 Jan 2021</t>
-  </si>
-  <si>
-    <t>12 Jan 2021</t>
-  </si>
-  <si>
-    <t>6 Jan 2021</t>
-  </si>
-  <si>
     <t>... sich ja nicht auf den Tisch, ich habe kürzlich auch dort gelesen.» Dieser Brief sei für Peter Bichsel das Angebot (und der Beginn) einer Freundschaft gewesen.</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
   </si>
   <si>
     <t>https://www.bote.ch/sport/eishockey/nla/ehc-biel-mit-erstem-sieg-des-jahres;art2057,1288584</t>
-  </si>
-  <si>
-    <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///////yH5BAEKAAEALAAAAAABAAEAAAICTAEAOw==</t>
   </si>
   <si>
     <t>«Passen Sie auf, der Tisch wird wackeln», so habe Kurt Marti ihm, dem jungen, unbekannten Lyriker, geschrieben.
@@ -161,12 +146,662 @@
 - Strafen: 5mal 2 plus 10 Minuten (Chavaillaz) gegen Fribourg-Gottéron, 7mal 2 Minuten gegen Davos.
 - Strafen: 7mal 2 Minuten gegen Biel, 5mal 2 Minuten gegen SCL Tigers.</t>
   </si>
+  <si>
+    <t>Beat Brechbühl: «Ich will keine Altersgedichte schreiben!»</t>
+  </si>
+  <si>
+    <t>Seniorweb.ch</t>
+  </si>
+  <si>
+    <t>An den Solothurner Literaturtagen 2019 hat er sich an zwei Nachmittagen mit dem «Beizenhocker» Peter Bichsel abseits vom literarischen Gewimmel in einer ...</t>
+  </si>
+  <si>
+    <t>https://seniorweb.ch/2021/01/22/beat-brechbuehl-ich-will-keine-altersgedichte-schreiben/</t>
+  </si>
+  <si>
+    <t>Ich will nicht aufschreiben, wasich nicht mehr kann, was ich vergessen habe (habe ichvergessen), was ich nicht mehr schaffe, wasich nicht mehr sehe undhöre, was ich nicht kapiere, was ichnicht mehr kenne, was michschreckweise reduziert (auch wenn ich diesnicht wahrnehmen will).
+Ach, das sollte ich noch machen – und schon bin ich wieder unterwegs zum andern Tisch.» Aber im Gedicht steht nicht: Ich beginne wieder etwas, sondern Ich beginne mich wieder.
+«Das Ich ist der Macher und das mich der Empfänger und Fänger von Gedanken und Worten.»Was jetzt?
+Und im Sommer gebe ich das Atelier auf und hoffe, dass bis dann jemand kommt, der sagt «Ich will Bücher machen!» und bei dem ich dann noch ein «Büröchen» haben kann.
+Ich kann ja nicht den ganzen Tag zuhause bleiben … und in ein Altersheim gehe ich nicht.</t>
+  </si>
+  <si>
+    <t>Langnau: Nach 30 Jahren geben Bichsels ihre Drogerie weiter</t>
+  </si>
+  <si>
+    <t>neo1</t>
+  </si>
+  <si>
+    <t>August 1990 eröffneten Dora und Peter Bichsel die Fotodrogerie Bichsel an der Alleestrasse in Langnau. Nun, über 30 Jahre später, per 01. Januar 2021 haben ...</t>
+  </si>
+  <si>
+    <t>https://www.neo1.ch/programm/aktuell/wochengespraech/wochengespraech/datum/2021/01/23/langnau-nach-30-jahren-geben-bichsels-ihre-drogerie-weiter.html</t>
+  </si>
+  <si>
+    <t>August 1990 eröffneten Dora und Peter Bichsel die Fotodrogerie Bichsel an der Alleestrasse in Langnau.
+Peter Bichsel war zu Gast im neo1 Wochengespräch und sprach über die Anfänge, seine persönlichen Highlights und womit er sich nun beschäftigt.
+Nun mehr Zeit für die GrosskinderMit der Geschäftsübergabe auf Anfang Jahr an Sabine Eggimann verschwanden Bichsels im Geschäft aber nicht von der Bildfläche.
+Einmal wöchentlich sind Dora und Peter im Geschäft und arbeiten mit.
+"Sonst haben wir nun mehr Zeit für die Dinge, die vorher wenig Platz hatten.</t>
+  </si>
+  <si>
+    <t>Never Mind the Markets: Positive Coronafolge – Homeoffice ...</t>
+  </si>
+  <si>
+    <t>Tages-Anzeiger</t>
+  </si>
+  <si>
+    <t>Was lernen wir aus der Pandemie? «Nichts» war die Antwort des Schriftstellers Peter Bichsel in einem kürzlich erschienenen Interview. Damit hat er im ...</t>
+  </si>
+  <si>
+    <t>https://www.tagesanzeiger.ch/homeoffice-darf-gerne-bleiben-687495570770</t>
+  </si>
+  <si>
+    <t>Never Mind the Markets: Positive Coronafolge – Homeoffice?
+Doch etwas Wichtiges haben wir trotzdem gelernt: Arbeiten im Homeoffice funktioniert bei vielen Berufen gut und häufig sogar besser als im Büro.
+Nicht nur deshalb, weil das häufig anzutreffende Grossraumbüro ein denkbar schlechter Ort ist, um zu denken oder kreativ zu arbeiten.
+Man gewinnt auch räumliche und zeitliche Flexibilität, um zu der Zeit an dem Ort zu arbeiten, wo es individuell am besten passt.
+Und das lästige Pendeln zu Arbeit fällt weg.</t>
+  </si>
+  <si>
+    <t>Baden - Sein Lebenswerk: Rolf Gersbach holte die Kultur in die Beizen – ein Nachruf | Badener Tagblatt</t>
+  </si>
+  <si>
+    <t>Badener Tagblatt</t>
+  </si>
+  <si>
+    <t>Donnerstags wurde Jazz, Funk oder Blues serviert, nicht selten von renommierten Namen, oder Lesungen, so auch mit Peter Bichsel. Gastspiel im Inox: Pflicht für ...</t>
+  </si>
+  <si>
+    <t>https://www.badenertagblatt.ch/aargau/baden/sein-lebenswerk-rolf-gersbach-holte-die-kultur-in-die-beizen-ein-nachruf-ld.2087560</t>
+  </si>
+  <si>
+    <t>Baden Sein Lebenswerk: Rolf Gersbach holte die Kultur in die Beizen – ein Nachruf Zum Gedenken: Rolf Gersbach (1947-2021) schrieb von 1982 bis 2006 mit dem «Inox» und der «Promenade» Badener Musik-Geschichte.
+Rolf Gersbach: Die Nachricht seines Todes kam für alle überraschend.
+Aus der Drögeler- wurde eine Kultur-Beiz, wo die «Pouletflügeli im Körbli» zum Schlagerartikel wurden, verbunden mit der Gemütlichkeit und Gastfreundlichkeit von Wirt Gersbach, die jeder zu spüren bekam.
+Umbaupläne für die Liegenschaft stellten die Zukunft des Lokals in Frage, neue Projekte nagten an seiner Substanz, ebenso Finanzprobleme des Kulturbetriebs, dem eine breite Unterstützung fehlte.
+Die Ehrung mit dem «Dutti-Orden» der Stadt Baden bedeuteten für den damals 60 gewordenen Rolf Gersbach im März 2006 einen letzten Höhepunkt.</t>
+  </si>
+  <si>
+    <t>Kolumne: «Freistil» – Wo ist das Basler Stadtbuch?</t>
+  </si>
+  <si>
+    <t>Basler Zeitung</t>
+  </si>
+  <si>
+    <t>Buchstabe A wie Eric Ambler, Urs Allemann, Ernst Augustin oder Jane Austen. B wie Balzac, Peter Bichsel oder Bertolt Brecht. Oder B wie Basler Stadtbuch. Die ...</t>
+  </si>
+  <si>
+    <t>https://www.bazonline.ch/wo-ist-das-basler-stadtbuch-515507135661</t>
+  </si>
+  <si>
+    <t>Kolumne: «Freistil» – Wo ist das Basler Stadtbuch?
+Christine RichardTempi passati: Als das Stadtbuch noch ein richtiges Buch war, aus Papier und so … Foto: Pino CovinoDigitale Bücher kommen und gehen, gedruckte Bücher bleiben bestehen.
+Oder B wie Basler Stadtbuch.
+Die schmucken Bände des Stadtbuchs, das seit 1879 existiert, bilden eine schöne geradlinige Reihe.
+Anno 2017 wurde die gedruckte Ausgabe eingestellt und das Basler Stadtbuch ins Internet versenkt.</t>
+  </si>
+  <si>
+    <t>Wollen wir mit Philosophie das Alain Berset-Covid-Gefängnis ...</t>
+  </si>
+  <si>
+    <t>Dort hat man Peter Bichsel, der zuletzt zu wenig aufregend war, gefeuert zugunsten eines jungen Revoluzzers. Vor 70 Jahren hätte man Bärfuss als ...</t>
+  </si>
+  <si>
+    <t>https://insideparadeplatz.ch/2021/01/24/wollen-wir-mit-philosophie-das-alain-berset-covid-gefaengnis-stuermen/</t>
+  </si>
+  <si>
+    <t>Wir stehen erst am Anfang des zweiten Covid-Jahres, und ich sehe ein Volk, das wie ein Kuchen in sich zusammensinkt.
+Nicht einmal Eric Gujer, der Chefredaktor, der ihn engagierte, hält das intellektuelle Chaos, das Scheu veranstalte, länger aus.
+Mit manchen Ausrutschern nicht nur gegen die Päpste, sondern auch gegen die Juden und die Bauern, die er zu hängen empfahl.
+Lukas Bärfuss, Schriftsteller und Büchner-Preisträger (das ist etwas Gewaltiges für Literaten, nahe am Nobelpreis), ist der Hausphilosoph des Ringier Verlags.
+Das ist ein schlechtes Ende, welches ich so wenig empfehle wie einen Abgang bei Exit oder einer ihrer Schweizer Nachahmer-Firmen.</t>
+  </si>
+  <si>
+    <t>Zürcher vermissen ihre Bars – Jetzt stehen die Stammgäste ...</t>
+  </si>
+  <si>
+    <t>Die Beiz als zweites Wohnzimmer, als Ort, an dem man laut dem Stammtisch-Philosophen Peter Bichsel «allein und als Eigenartiger» hin kann, hat für viele ...</t>
+  </si>
+  <si>
+    <t>https://www.tagesanzeiger.ch/stammgaeste-muessen-draussen-bleiben-508736720873</t>
+  </si>
+  <si>
+    <t>Zürcher vermissen ihre Bars – Jetzt stehen die Stammgäste halt vor der Beiz ums Feuer Für manche ist der Spunten wichtiger als die eigene Stube.
+Was machen diese Menschen im Gastro-Lockdown, wo sind sie hin?
+David SarasinDer Wirt Sebastian Burgstein (l.) und seine beiden Stammgäste Miroljub Vidovic und Rahel Bieri wärmen sich unweit der Penalty-Bar am Feuer.
+«Wenn ich den Fuss jetzt weg vom Restaurant-Grundstück stelle, bin ich nicht mehr illegal hier», sagt einer, der sich als Herbie vorstellt.
+Es geht um die Gäste, nicht ums GeldDie Leute, die sich hier versammeln, sind eigentlich Stammgäste in diesem kleinen Restaurant im Kreis 4.</t>
+  </si>
+  <si>
+    <t>Buchtipp: Papier-Blumen aus alten Büchern</t>
+  </si>
+  <si>
+    <t>Frauenland</t>
+  </si>
+  <si>
+    <t>Naturgartenprofi Peter Richard gibt Einblicke. Buchtipp: Lesen Schreiben ... Buchtipp: Anna Seilerin Das Buch von Therese Bichsel erzählt die ... Folgen Sie uns.</t>
+  </si>
+  <si>
+    <t>https://www.frauenland.ch/artikel/buchtipp-papier-blumen-aus-alten-buechern</t>
+  </si>
+  <si>
+    <t>Haben Sie noch kein Abo von FrauenLand?
+Ein Produkt auswählen und bestellenSie sind bereits FrauenLand-Abonnent - haben aber noch kein Online-Login?
+Die sofortige Freischaltung anfordernHaben Sie Ihr Passwort vergessen?
+Passwort vergessenHaben Sie Fragen?
+Infohotline: 031 958 33 33Montag bis Freitag 8:00 - 12:00 Uhr und13:30 - 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>Essay: Von 1968 zu Cancel Culture – Und wo stehe ich ...</t>
+  </si>
+  <si>
+    <t>Peter Bichsel hat kürzlich in der NZZ gesagt, nur das Leben, das man selbst erzählen könne, sei ein sinnvolles. Und wenn die Literatur einen gesellschaftlichen ...</t>
+  </si>
+  <si>
+    <t>https://www.bazonline.ch/und-wo-stehe-ich-eigentlich-politisch-846688312672</t>
+  </si>
+  <si>
+    <t>Essay: Von 1968 zu Cancel Culture – Und wo stehe ich eigentlich politisch?
+Bruno Ziauddin (Das Magazin)Gehöre ich vielleicht zu der schlimmen Sorte – den Weder-Fisch-noch-Vogel-Typen?
+Das Profilbild und der Name sagten mir im ersten Moment nichts, sodass ich von einer Spamnachricht ausging.
+Drei Dinge sind mir von dem Studienkollegen in Erinnerung geblieben.
+Einmal zeigte er mir einen vergilbten Artikel aus der Lokalzeitung, in dem es um diese neuartige, verstörende Jugendbewegung ging.</t>
+  </si>
+  <si>
+    <t>Polizei veröffentlicht Foto – Was hat dieser Sockel mit der ...</t>
+  </si>
+  <si>
+    <t>Nun sucht die Polizei Hinweise zu einem gestohlenen Sockel. Hans Peter Roth. Aktualisiert: 19.01.</t>
+  </si>
+  <si>
+    <t>https://www.bazonline.ch/was-hat-dieser-sockel-mit-der-thunersee-leiche-zu-tun-406573221450</t>
+  </si>
+  <si>
+    <t>Polizei veröffentlicht Foto – Was hat dieser Sockel mit der Thunersee-Leiche zu tun?
+Die Frauenleiche, die bei Gunten aus dem Thunersee geborgen wurde, stellt die Ermittler vor Rätsel.
+Nun sucht die Polizei Hinweise zu einem gestohlenen Sockel.
+Sofort verständigten sie die Polizei.
+Unter der Leitung der zuständigen Staatsanwaltschaft sowie dem Dezernat Leib + Leben der Kantonspolizei Bern sind umfangreiche Abklärungen im Gang, wie die Polizei mitteilt.</t>
+  </si>
+  <si>
+    <t>7 spezielle Feinkostgeschäfte – Wo das Einkaufen gute Laune ...</t>
+  </si>
+  <si>
+    <t>Der Bund</t>
+  </si>
+  <si>
+    <t>Jedenfalls trinke ich lieber schlechten Wein als keinen», so Solothurns berühmtester Denker, Peter Bichsel. Guten Wein, diverse Liköre, auch unbekannte ...</t>
+  </si>
+  <si>
+    <t>https://www.derbund.ch/wo-das-einkaufen-gute-laune-macht-980658380959</t>
+  </si>
+  <si>
+    <t>7 spezielle Feinkostgeschäfte – Wo das Einkaufen gute Laune macht Wenn uns die Beizen schon vorenthalten werden, dann will Gastrokritiker Martin Jenni wenigstens bei der Beschaffung der Zutaten auf der Genussspur bleiben.
+Martin JenniDelikatessengeschäfte wie der Kolonialladen Schwarzenbach im Zürcher Niederdorf sind Treffpunkt e für anspruchsvolle Gaumen, die stets auf der Suche nach dem Besten sind.
+Foto: Reto OeschgerWo sind sie geblieben, die speziellen Einkaufsläden.
+Wo sind unsere «Emmas» hin?
+Aus dem Quartier verschwunden, vertrieben von den Grossisten, die sich heute oft und gerne als «Emma» verkleiden und so tun, als wären sie genauso gut wie all die kleinen Enthusiastinnen.</t>
+  </si>
+  <si>
+    <t>Index of /politik</t>
+  </si>
+  <si>
+    <t>hans-peter-wessels-wir-haben-ein-offenes-ohr-fuer-das-gewerbe/, 2020-10-27 14:09, - ... zum-80-geburtstag-von-peter-bichsel-ein-blick-in-sein-zeitloses-werk/ ...</t>
+  </si>
+  <si>
+    <t>https://tageswoche.ch/politik/?C=M;O=A</t>
+  </si>
+  <si>
+    <t>100 Jahre Friedrich Dürrenmatt - «Wir waren Freunde»: Peter André Bloch blickt auf seine Begegnung mit Dürrenmatt zurück</t>
+  </si>
+  <si>
+    <t>Solothurner Zeitung</t>
+  </si>
+  <si>
+    <t>Ich hatte zudem, zusammen mit einigen Autoren und Massimo Hauswirth im Oltner Kellertheater die «Gruppe Olten» gegründet, wozu bekanntlich Peter Bichsel, ...</t>
+  </si>
+  <si>
+    <t>https://www.solothurnerzeitung.ch/solothurn/niederamt/100-jahre-friedrich-duerrenmatt-duerrenmatt-und-ich-waren-freunde-ld.2104670</t>
+  </si>
+  <si>
+    <t>«Wir waren Freunde»: Peter André Bloch blickt auf seine Begegnung mit Dürrenmatt zurückPeter André Bloch (84), «homme des lettres» von Olten und Präsident der Stiftung Schloss Wartenfels, erinnert sich an seine Begegnungen mit Friedrich Dürrenmatt, der vor hundert Jahren zur Welt kam.</t>
+  </si>
+  <si>
+    <t>Wieder sucht der UBS-Chefjurist Rampenlicht</t>
+  </si>
+  <si>
+    <t>Des Schweizers Schweiz ist ein Gebilde aus plebiszitäre Komponenten, Mythen, Falschdarstellungen und Illusionen. 1969 schrieb Peter Bichsel den Satz:.</t>
+  </si>
+  <si>
+    <t>https://insideparadeplatz.ch/2021/02/22/wieder-sucht-ubs-chefjurist-rampenlicht/</t>
+  </si>
+  <si>
+    <t>Nicht so Markus Diethelm, der Chefjurist der Grossbank UBS.
+Vielmehr zieht es Diethelm laut NZZ am Sonntag stets mitten ins Gefecht.
+3,7 Milliarden Euro Strafe plus 800 Millionen Euro Schadenersatz, total 4,5 Milliarden Euro oder rund 5 Milliarden Franken.
+Nach der Verurteilung von 2019 und der Décharge-Verweigerung merkte die Bank, dass sie sich besser erklären muss.
+Wird die Strafe erneut in die Milliarden gehen, dann muss die Bank nicht nur Dividenden kürzen.</t>
+  </si>
+  <si>
+    <t>Mürren Tourismus unter neuer Leitung - htr.ch</t>
+  </si>
+  <si>
+    <t>HTR Hotel Revue</t>
+  </si>
+  <si>
+    <t>Sie übernimmt die Nachfolge von Samuel Bichsel, der ein Sabbatical einziehen will. (htr/npa). Publiziert am Donnerstag, 25. Februar 2021Mürren Tourismus ...</t>
+  </si>
+  <si>
+    <t>https://www.htr.ch/story/muerren-tourismus-unter-neuer-leitung-30595.html</t>
+  </si>
+  <si>
+    <t>Die Geschäftsleitung der Jungfrau Region Tourismus AG hat gemeinsam mit dem Vorstand von Mürren Tourismus Rachel Arkin als neuen Resort Director verpflichtet.
+Rachel Arkin wird in Mürren für die Führung des Tourist-Centers sowie des alpinen Sportzentrums zuständig sein ‒ mit Einsitz in der Geschäftsleitung der Jungfrau Region Tourismus AG (JRT).
+Die Produktmanagementerfahrung bringt die 53-Jährige aus ihrer langjährigen Tätigkeit bei TUI Suisse mit, bei der sie mehrere Produktsegmente abdeckte.
+Eines aber war, ist und bleibt kostbar und einzigartig: Die Ferienregion Mürren – eine touristische Perle auf der Schweizer Landkarte.
+Mit Engagement, Freude und Herzblut werde ich mich für die Weiterentwicklung der Marke Mürren, deren touristischen Angebote und Infrastrukturprojekte einsetzen.»Rachel Arkin tritt ihre neue Stelle bei Mürren Tourismus am 1.</t>
+  </si>
+  <si>
+    <t>Soziale Ungleichheit – Arm und Reich: Mulhouse wird zur Stadt der Extreme</t>
+  </si>
+  <si>
+    <t>Der Schweizer Autor Peter Bichsel erzählte einmal eine Erfahrung bei der Unterschriftensammlung. ... Kommentar von Hans Peter (HPet) Montag, 15. Februar ...</t>
+  </si>
+  <si>
+    <t>https://www.srf.ch/news/international/soziale-ungleichheit-arm-und-reich-mulhouse-wird-zur-stadt-der-extreme</t>
+  </si>
+  <si>
+    <t>Arm und Reich: Mulhouse wird zur Stadt der ExtremeDer Secours populaire français ist ein Hilfswerk in Mulhouse.
+Jetzt kommen auch Bedürftige aus der Gastronomie und der Hotellerie zu uns», so Palpacue.
+Das ruhige, grüne Viertel mit Villen aus der Gründerzeit liegt auf einem Hügel im Süden der Stadt und ist das Luxusquartier von Mulhouse.
+Ausserhalb der Grossstädte ist Mulhouse die Stadt mit den reichsten Französinnen und Franzosen.
+Vincent Béal, Soziologe an der Universität Strassburg, sagt: Mulhouse sei in den letzten Jahrzehnten zu einer Stadt der Extreme geworden: «Das Rebberg-Quartier ist zuoberst in der sozialen Hierarchie der Stadt.</t>
+  </si>
+  <si>
+    <t>Eishockey, Swiss League – GCK Lions lassen sich von ...</t>
+  </si>
+  <si>
+    <t>Zürichsee-Zeitung</t>
+  </si>
+  <si>
+    <t>Hans Peter Rathgeb. Publiziert: 22.02.2021, 23:39. 0 Kommentare ... SR: Erard, Jordi; Bichsel/Nater. – Tore: 18. Brennan 0:1. 22. (21:19) Casutt (Meier ...</t>
+  </si>
+  <si>
+    <t>https://www.zsz.ch/gck-lions-lassen-sich-von-thurgau-erwischen-444775212576</t>
+  </si>
+  <si>
+    <t>Eishockey, Swiss League – GCK Lions lassen sich von Thurgau erwischen In Küsnacht unterliegen die Zürcher dem Tabellenfünften 2:5.
+Unglückliche Gegentore im Schlussdrittel führen dazu, dass sie gegen Thurgau nicht wie kürzlich wieder als Sieger hervorgehen.
+Hans Peter RathgebDiese Scheibe ist eine sichere Beute für Robin Zumbühl: Gegen Thurgau wurde der Goalie der GCK Lions aber unglücklich bezwungen.
+Foto: Marcel Bieri8:2 hatten die GCK Lions am 14.
+Die GCK Lions, die defensiv sehr gute Arbeit leisteten, gerieten etwas gar unglücklich in Rücklage.</t>
+  </si>
+  <si>
+    <t>SCHULBEHÖRDE - Von Amriswil bis Wilen: Dem Thurgau stehen etliche Kampfwahlen bevor - die Übersicht | St.Galler Tagblatt</t>
+  </si>
+  <si>
+    <t>St. Galler Tagblatt</t>
+  </si>
+  <si>
+    <t>... stellt sich einzig die bisherige Präsidentin Monika Ribi Bichsel (FDP) zur Wahl. ... Der bisherige Präsident Peter Haas tritt ohne Gegenkandidatur erneut an.</t>
+  </si>
+  <si>
+    <t>https://www.tagblatt.ch/ostschweiz/kreuzlingen/schule-von-amriswil-bis-wilen-dem-thurgau-stehen-etliche-kampfwahlen-bevor-ld.2105566</t>
+  </si>
+  <si>
+    <t>SCHULBEHÖRDE Von Amriswil bis Wilen: Dem Thurgau stehen etliche Kampfwahlen bevor - die Übersicht Am 7.
+März entgegen, wenn bei den Gesamterneuerungswahlen die Schulbehörden für die Legislatur bis 2025 neu bestellt werden.
+Es gibt je eine Kandidatur der FDP (Conny Jenni) und der CVP (André Mathis).
+Schulgemeinde Bichelsee-Balterswil:Nebst dem Präsidium mit Andrea Schwager als einziger Kandidatin sind in Bichelsee-Balterswil vier Behördensitze neu zu bestellen.
+Primarschulgemeinde Lommis:Für die vier Behördensitze kommen fünf Kandidaten in Frage.</t>
+  </si>
+  <si>
+    <t>Die Sendung mit dem Lebertran – DIE ACHSE DES GUTEN ...</t>
+  </si>
+  <si>
+    <t>Achgut.com</t>
+  </si>
+  <si>
+    <t>Peter Hahne (68) war Vorgänger von Petra Gerster als Moderator der ... von dem schweizerischen Schriftsteller Peter Bichsel, der erfreulicherweise noch lebt ...</t>
+  </si>
+  <si>
+    <t>https://www.achgut.com/artikel/die_sendung_mit_de_lebertran</t>
+  </si>
+  <si>
+    <t>Die Sendung mit dem LebertranVon Peter Hahne.
+Der Philosoph und Pädagoge war Mitglied des Ritterordens vom Heiligen Grab zu Jerusalem und verwandt mit dem Schriftsteller Wilhelm Holzamer.
+Er achtete in seinen legendären 16 Intendanten-Jahren auf blitzsauberen Journalismus, wozu ordentliche Recherche und der richtige Gebrauch der deutschen Sprache gehörten.
+Die wollen doch noch nicht mal die schönen Windräder oder die Abschaffung der Einfamilienhäuser, diese Elenden.
+Wäre da nicht die schützende Hand der Öffentlich-Rechtlichen oder das Milliarden teure Divers-Förderungsprogramm der Bundesregierung, das zur Wochenmitte vorgestellt wurde.</t>
+  </si>
+  <si>
+    <t>Neues Amt für Stefan Bichsel</t>
+  </si>
+  <si>
+    <t>Finews</t>
+  </si>
+  <si>
+    <t>An der Generalversammlung der Berner Kantonalbank (BEKB) scheidet Peter Wittwer nach sechs Jahren Mitarbeit aus dem Verwaltungsrat aus. Dies aufgrund ...</t>
+  </si>
+  <si>
+    <t>https://www.finews.ch/news/banken/45308-bekb-peter-wittwer-hugo-schuermann-stefan-bichsel-verwaltungsrat</t>
+  </si>
+  <si>
+    <t>An der Generalversammlung der Berner Kantonalbank (BEKB) scheidet Peter Wittwer nach sechs Jahren Mitarbeit aus dem Verwaltungsrat aus.
+Der erfahrene Banker bringt eine lange Erfahrung im Finanzbereich mit, insbesondere im Anlagekundengeschäft und im Asset Management.
+Im Laufe seiner Karriere war er unter anderem Präsident des Schweizerischen Fonds und Asset Management Verbandes (SFAMA) und später des Europäischen Fonds und Asset Management Verbandes (EFAMA).
+Zuletzt arbeitete er von 2009 bis Ende 2020 als Generaldirektor der Division «Asset Management &amp; Trading» bei der Waadtländer Kantonalbank (BCV).
+Abgang bei einer anderen KantonalbankAktuell ist Bichsel Präsident des Verwaltungsrats der Fondsleitungsgesellschaften Gérifonds und GEP in Lausanne.</t>
+  </si>
+  <si>
+    <t>Vom Leben der Menschen</t>
+  </si>
+  <si>
+    <t>Da ist die Story über den jungen Peter Bichsel fürs Magazin, dessen Porträt aufs Titelblatt kam. Oder die Drogengeschichte aus Brasilien, oder Teile der Serie ...</t>
+  </si>
+  <si>
+    <t>https://seniorweb.ch/2021/03/05/vom-leben-der-menschen/</t>
+  </si>
+  <si>
+    <t>Bildserien, Fotoreportagen und Porträts umfasst die Retrospektive «Pia Zanetti, Fotografin» in der Fotostiftung Schweiz: Mehr als ein halbes Jahrhundert Fotos aus der halben Welt.
+Dieses Foto eröffnet die Ausstellung und ist eins der ersten, die Pia Zanetti – damals siebzehn und noch kaum in der Lehre – bis heute gelten lässt.
+Seither fotografiert sie auf der ganzen Welt, in Kriegs- und Krisengebieten, aber auch in Fabriken oder auf belebten Strassen.
+Fasziniert von der Grossstadt, sog Pia Zanetti auf einer der frühen Reisen zusammen mit ihrem Mann, dem Journalisten Gerardo Zanetti, das pralle Leben der Gegensätze mit und ohne Linse vor den Augen in sich auf.
+Besondere Gefühle ergreifen sie bei der Reportage mit Nina 1997, Zanettis Adoptivkind aus Vietnam auf der Suche nach den Wurzeln.</t>
+  </si>
+  <si>
+    <t>Wie Restaurants trotz Corona-Massnahmen Gäste bewirten</t>
+  </si>
+  <si>
+    <t>NZZ am Sonntag</t>
+  </si>
+  <si>
+    <t>Nur Peter Bichsel wollte in unseren Lobgesang nicht so richtig einstimmen. Barbara Höfler, Pauline Krätzig, Jost Auf der Maur, Patrizia Messmer, Kerstin Netsch, ...</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/schweiz/wie-restaurants-trotz-corona-massnahmen-gaeste-bewirten-ld.1605339</t>
+  </si>
+  <si>
+    <t>Wie Restaurants illegal Gäste bewirten Die Ungeduld der Wirte und der Gäste wächst und so auch das Phänomen der «Geister-Restaurants».
+Manche Wirte schöpfen trotz Verbot Mahlzeiten für ihre Gäste.
+Getty ImagesEigentlich ist das Restaurant von A. wegen der Corona-Pandemie geschlossen.
+Doch für Stammgäste und deren Freunde macht der 47-jährige Koch aus Zürich regelmässig eine Ausnahme – so auch diesen Freitag: «Heute Abend kommen zwei befreundete Paare hierher», sagt der Mann im Gespräch mit der «NZZ am Sonntag».
+«Ich werde ihnen einen Viergänger servieren.»</t>
+  </si>
+  <si>
+    <t>Live - Der Ticker zum Nachlesen: Schulbehörden- und Gemeindewahlen im Thurgau – Michael Stäheli-Engel ist neuer Schulpräsident in Amriswil +++ Martina Erni-Krüsi weiterhin Schulpräsidentin von Amlikon-Holzhäusern +++ Alice Santschi neue Schulpräsidentin von Pfyn</t>
+  </si>
+  <si>
+    <t>(kuo) Der neue Gemeindepräsident von Matzingen heisst Peter Schellenberg ... Präsidentin Monika Ribi Bichsel schaffte die Wiederwahl mit 1048 von 1100 ...</t>
+  </si>
+  <si>
+    <t>https://www.tagblatt.ch/ostschweiz/kreuzlingen/live-der-ticker-zum-nachlesen-schulbehoerden-und-gemeindewahlen-im-thurgau-michael-staeheli-engel-ist-neuer-schulpraesident-in-amriswil-martina-erni-kruesi-weiterhin-schulpraesidentin-von-amlikon-holzhaeusern-alice-santschi-neue-schulpraesidentin-von-pfyn-ld.2109264</t>
+  </si>
+  <si>
+    <t>16:06 UhrCatherine Rutishauser bleibt Schulpräsidentin von MünsterlingenCatherine Rutishauser wurde mit mit 556 von 571 Stimmen klar wiedergewählt.
+Neu in die Behörde gewählt haben die Stimmbürger Urs Stäheli mit 878 Stimmen und Thomas Hofmann mit 846 Stimmen.
+Hingegen gewählt sind Raphael Meister (parteilos) mit 504 Stimmen und Daniel Jung (SVP) mit 354 Stimmen.
+Der Sekundarschulbehörde gehören von Amtes wegen auch die Primarschulpräsidentin von Uttwil, Rebecca von Rappard, und der Primarschulpräsident von Dozwil/Kesswil, Christian Rumpf, an.
+Dahinter reihen sich Lukas Gaam (52-jährig, parteilos) mit 301 Stimmen und Lilian Manser Blarer (53-jährig, parteilos) mit 278 Stimmen.</t>
+  </si>
+  <si>
+    <t>Bundesrätin als inhaltsleere Polit-Dolmetscherin hochkant ...</t>
+  </si>
+  <si>
+    <t>Gefördert vom nicht wenig anders veranlagten Gratisblätter-Grossverleger Rolf-Peter Zehnder, wo ihr Bruder Chefredaktor war, unterblieb in den Spalten nichts, ...</t>
+  </si>
+  <si>
+    <t>https://insideparadeplatz.ch/2021/03/08/bundesraetin-keller-sutter-als-inhaltsleere-polit-dolmetscherin-hochkant-gescheitert/</t>
+  </si>
+  <si>
+    <t>Dabei beschädigt das Diethyltoluamid (TEET), das von Sonnenbadenden direkt oder übers Duschen ins Wasser getragen wird, Fauna und Flora unserer Flüsse.
+Auf der Wasseroberfläche schwimmend, verhindern sie das Eindringen der Sonne zur Regulierung des Algenwachstums und der Fische.
+Auch beim E-ID-Gesetz erlitt Keller-Sutter eine Abfuhr – und was für eine, mit über 60 Prozent Nein.
+Sie hätte zu transportieren gehabt, was die Beschlüsse des Parlaments und des Bundesrates wollen, um gegen die bedenkliche Forderung der Burka-Initiative zu mobilisieren.
+Selbst gegen die Verteilung von Koranen zog die NZZ vom Leder, bis die Stadtverwaltung die Duldung dafür aufgab.</t>
+  </si>
+  <si>
+    <t>GESAMTERNEUERUNGSWAHLEN - Kampfwahlen: So sehen die Resultate aus dem Thurgau aus – die Übersicht | St.Galler Tagblatt</t>
+  </si>
+  <si>
+    <t>Präsidentin Monika Ribi Bichsel schaffte die Wiederwahl mit 1048 von 1100 Stimmen klar und deutlich. Kampfwahlen im Thurgau - Sekundarschule Feldbach ...</t>
+  </si>
+  <si>
+    <t>https://www.tagblatt.ch/ostschweiz/frauenfeld/gesamterneuerungswahlen-kampfwahlen-so-sehen-die-resultate-aus-dem-thurgau-aus-die-uebersicht-ld.2110733</t>
+  </si>
+  <si>
+    <t>GESAMTERNEUERUNGSWAHLEN Kampfwahlen: So sehen die Resultate aus dem Thurgau aus – die Übersicht Am 7.
+Kampfwahlen im Thurgau - VSG Horn * bisher im Amt.
+Kampfwahlen im Thurgau - VSG Diessenhofen * bisher im Amt.
+Kampfwahlen im Thurgau - Primarschule Kreuzlingen * bisher im Amt.
+Kampfwahlen im Thurgau - Primarschule Münsterlingen * bisher im Amt.</t>
+  </si>
+  <si>
+    <t>Was eine Beiz ausmacht</t>
+  </si>
+  <si>
+    <t>NZZ</t>
+  </si>
+  <si>
+    <t>Und als Prototyp galt lange das «Kreuz» in Solothurn, die Stammbeiz des Schriftstellers Peter Bichsel, der mit seiner Aufsatzsammlung «Des Schweizers ...</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/feuilleton/was-eine-beiz-ausmacht-ld.1609068</t>
+  </si>
+  <si>
+    <t>Des Schweizers Beiz – zur Ehrenrettung eines helvetischen Kulturguts Eine Beiz mag ein Restaurant sein, aber ein Restaurant ist noch lange keine Beiz.
+Ein Beispiel dafür bietet in der Schweiz die Karriere des Wörtchens «Beiz».
+Es steht wie kaum ein anderes für die gute alte Zeit, die mehr und mehr zu entschwinden droht.
+Nun allerdings zu behaupten, «Beiz» habe inzwischen als Synonym für «Restaurant» zu gelten, würde nicht von viel Sinn für sprachliche Nuancen zeugen.
+So ist auch das seit Jahrzehnten zu Recht beklagte Beizensterben, namentlich auf dem Lande, weder die Schuld des Bundesrats noch eine Folge der Pandemie.</t>
+  </si>
+  <si>
+    <t>Solothurn - Neuer Laden in der Vorstadt: Kultiger Treffpunkt für Vinyl-Liebhaber</t>
+  </si>
+  <si>
+    <t>... Ochsner sind sehr gesucht.» Und im Schaufenster findet man zudem natürlich LPs von Krokus und sogar einen Tonträger mit Geschichten von Peter Bichsel.</t>
+  </si>
+  <si>
+    <t>https://www.solothurnerzeitung.ch/solothurn/stadt-solothurn/solothurn-neuer-laden-in-der-vorstadt-kultiger-treffpunkt-fuer-vinyl-liebhaber-ld.2117070</t>
+  </si>
+  <si>
+    <t>Solothurn Neuer Laden in der Vorstadt: Kultiger Treffpunkt für Vinyl-Liebhaber Wo früher Biolebensmittel und veganes Brot verkauft wurde, kann man heute in der Solothurner Vorstadt Secondhand-Schallplatten kaufen.
+Gehäkelte Einkaufstaschen für die SchallplattenRückblickend war für Christian und Sabine Küng der Start 2018 in Langendorf ideal.
+So sind die Beiden gewappnet für die Laufkundschaft, die hoffentlich bald vermehrt durch die Strassen der Solothurner Vorstadt flaniert.
+Auch Sabine Küng, die vormittags den Laden führt, hofft auf neue Gesichter im Laden.
+«Klar», lacht sie, «immerhin habe ich zum Beispiel Einkaufsnetze gehäkelt, die von der Grösse her absolut schallplattenkompatibel sind.»</t>
+  </si>
+  <si>
+    <t>Er gab dem «Schweizer Bauer» den Namen</t>
+  </si>
+  <si>
+    <t>Schweizer Bauer</t>
+  </si>
+  <si>
+    <t>... kennengelernt haben», sagt Fritz Bichsel aus Wohlen BE, Urenkel von Gottfried Flückiger, vor dem Haus seines Cousins Hans-Peter Burkhard in Oberburg ...</t>
+  </si>
+  <si>
+    <t>https://www.schweizerbauer.ch/jubilaeum/er-gab-dem-schweizer-bauer-den-namen/</t>
+  </si>
+  <si>
+    <t>– zvgDer «Schweizer Bauer» heisst erst seit 1896 «Schweizer Bauer».
+Dezember 1896 stand zum ersten Mal «Schweizer Bauer» über dem Titel «Bernische Blätter für Landwirthschaft».
+1894 «Schweizer Bauer Kalender»Er hatte 1894 bereits den «Schweizer Bauer Kalender» lanciert, von wo der Name übernommen wurde.
+September 1908 aber musste der «Schweizer Bauer» auf der Titelseite den Tod seines Redaktors vermelden.
+Flückiger redigierte den «Schweizer Bauer», der damals dienstags und freitags erschien, anfänglich alleine, später waren sie auf der Redaktion zu zweit.</t>
+  </si>
+  <si>
+    <t>Darf ein Deutscher sich heute eigentlich noch Patriot nennen ...</t>
+  </si>
+  <si>
+    <t>MyHeimat.de</t>
+  </si>
+  <si>
+    <t>Zum Verständnis: Herr Schumann meinte, der Patriotismus müsste Nationalismus genannt werden und umgekehrt. Daraufhin habe ich mit Peter Bichsel ...</t>
+  </si>
+  <si>
+    <t>https://www.myheimat.de/rheinberg/politik/darf-ein-deutscher-sich-heute-eigentlich-noch-patriot-nennen-oder-ist-das-pfui-d3262810.html</t>
+  </si>
+  <si>
+    <t>Jeder Mensch will irgendwo zu Hause sein, will sich in einer Sphäre bewegen, in der er sich sicher und wohl aufgehoben fühlt.
+Ein meiner Ansicht nach Grundbedürfnis des Menschen.
+Dieses Zuhause besitzt bei jedem allerdings eigene Schwerpunkte, es umfasst geistige und nicht-geistige Heimataspekte.
+Darf man sich eigentlich noch als Patrioten bezeichnen, ohne sofort stigmatisiert zu werden?
+Sich ausdrücklich zur Liebe zum Vaterland zu bekennen, löst bei manchen Menschen reflexartige Abwehrmechanismen aus.Was ist Patriotismus und wie ist er zu bewerten?Wikipedia schreibt:In einem Arbeitspapier aus dem Jahr 2016 schrieb Hans-Peter von Kirchbach, von 1999 bis 2000 Generalinspekteur der Bundeswehr und von 2002 bis 2013 Präsident der deutschen Johanniter-Unfall-Hilfe:</t>
+  </si>
+  <si>
+    <t>Ehrungen per Post</t>
+  </si>
+  <si>
+    <t>Singener Wochenblatt</t>
+  </si>
+  <si>
+    <t>Sportplakette in Silber: Ben Bichsel TV Radolfzell 1875 e.V.. Deutscher Vizemeister Stabhochsprung U18. Landesmeister Stabhochsprung U20 und U18. 2. Platz ...</t>
+  </si>
+  <si>
+    <t>https://www.wochenblatt.net/heute/nachrichten/article/ehrungen-per-post/</t>
+  </si>
+  <si>
+    <t>Aufgrund des Pandemiegeschehens und damit verbundener Lieferverzögerungen konnten die Ehrenplaketten und die Präsente bisher noch nicht ausgeliefert werden.
+Platz EMTrainer: Till-Jonas Gerngroß (Bundestrainer Nachwuchs 49er)Sportplakette in Silber:Ben Bichsel TV Radolfzell 1875 e.V.
+Landesmeister Speerwurf U20Landesmeister Speerwurf U20Landesmeister Meister Zehnkampf U20Trainer: Georg BaurRobert Fülle TV Radolfzell 1875 e.V.
+Deutsche Jugendmeisterinnen 29erLandesjugendmeister Ba-Wü Segeln 29erSiegerinnen Kieler Woche 29erZehnkampfmannschaft TV Radolfzell 1875 e.V.
+Deutsche Meisterschaften WMAC Grappling 90 kgTrainer: Sven TrettnerMoritz Zähringer TV Radolfzell e.V.</t>
+  </si>
+  <si>
+    <t>Kloten steht im Halbfinal – Als hätte es nie ein Problem gegeben</t>
+  </si>
+  <si>
+    <t>SR Staudenmann, Hungerbühler; Nater/Bichsel. - Tore: 8. Spiller (Meyer, Oejdemark; Strafe Hasani) ... Dani Peter. 26.03.2021. Als Stadtzürcher ist mein Herz ...</t>
+  </si>
+  <si>
+    <t>https://www.tagesanzeiger.ch/als-haette-es-nie-ein-problem-gegeben-861215007447</t>
+  </si>
+  <si>
+    <t>Swiss League: Kloten - La Chaux-de-Fonds – Als hätte es nie ein Problem gegeben Ein 8:0 für Kloten steht am Ende in der fünften Partie der Playoff-Viertelfinalserie gegen La Chaux-de-Fonds.
+Roland JauchAm Ende war es ein Torfestival: Hier bejubeln die Klotener das 7:0 von Oejdemark (65).
+Sich durch die Niederlage vom Dienstag in La Chaux-de-Fonds nicht aus dem Konzept bringen lassen war die Botschaft.
+Da war es schon ein Erfolg, dass Kloten sich mal im gegnerischen Drittel festsetzen konnte.
+Und dann schoss Oejdemark endlich einmal ziemlich hart von der blauen Linie, Meyer spielte den Abpraller quer zu Spiller.</t>
+  </si>
+  <si>
+    <t>Altes Handwerk in Rohrbach – Die Faszination eines edlen ...</t>
+  </si>
+  <si>
+    <t>Langenthaler Tagblatt</t>
+  </si>
+  <si>
+    <t>Als dieser eine alte Liegenschaft zum Zunfthaus umbaute, suchte er eine Person, die sich ihrer annahm, und fand sie in Sibylle Bichsel. Diese wandte sich an ...</t>
+  </si>
+  <si>
+    <t>https://www.langenthalertagblatt.ch/die-faszination-eines-edlen-metalls-177010940652</t>
+  </si>
+  <si>
+    <t>Altes Handwerk in Rohrbach – Die Faszination eines edlen Metalls Renate Hiltbrunner sucht einen Abnehmer für die alten Gussformen ihres früheren Mannes.
+Er war der letzte ausgebildete Zinngiesser der Schweiz.
+Foto: Beat MathysRenate Hiltbrunner wuchtet eine der schweren Gussfomen aus den Regalen der Werkstatt in Rohrbach.
+Nun öffnet sie die Form, zum Vorschein kommt ein Delfin.
+Renate Hiltbrunner erzählt: «Zinn war seit dem frühen Mittelalter geschätzt für die festliche Tafelrunde und die dekorative Gestaltung von Wohnungen.</t>
+  </si>
+  <si>
+    <t>Lörrach: Bei Anruf Kunst - Lörrach</t>
+  </si>
+  <si>
+    <t>Verlagshaus Jaumann</t>
+  </si>
+  <si>
+    <t>Peter Bichsel: "Der Mann mit dem Gedächtnis". Erschienen in: Kindergeschichten © 2017, Verlag Suhrkamp, Berlin. Robert Gernhardt: „Mein Buch, dein Buch“, ...</t>
+  </si>
+  <si>
+    <t>https://www.verlagshaus-jaumann.de/inhalt.loerrach-bei-anruf-kunst.4e398207-a7ec-488e-8342-9a80046bd5c6.html</t>
+  </si>
+  <si>
+    <t>Interessenten buchen den Termin und erhalten für die Lesungen mit Marie Jung den Einwahl-Link zum Zoom-Call per E-Mail, über den sie sich dann direkt und unproblematisch mit Marie Jung verbinden können (ohne Videobild).
+Für die Lesungen mit Michael Miensopust wird dagegen die Telefonnummer, die per E-Mail an den Werkraum Schöpflin geschickt.
+2010/11 war sie festes Ensemblemitglied am Theater Basel, 2012 im Ensemble der Münchner Kammerspiele, ab der Spielzeit 2015/16 war sie im Ensemble des Thalia Theaters Hamburg.
+Seit 2020 lebt und arbeitet sie als freie Theater- und Filmschauspielerin zwischen Belgien, Luxemburg, Deutschland und der Schweiz.
+Die Geschichten, die sie vorliest: Miranda July: „Der Mann auf der Treppe“, erschienen in: Zehn Wahrheiten.</t>
+  </si>
+  <si>
+    <t>Livestream übers Lesen mit Madeleine Giese und Rainer ...</t>
+  </si>
+  <si>
+    <t>Die Rheinpfalz</t>
+  </si>
+  <si>
+    <t>Nahezu jeder Autor hat über das Lesen geschrieben, so gibt es witzige, nachdenkliche oder verrückte Zitate von Erasmus von Rotterdam bis Peter Bichsel.“ ...</t>
+  </si>
+  <si>
+    <t>https://www.rheinpfalz.de/lokal/zweibruecken_artikel,-livestream-%C3%BCbers-lesen-mit-madeleine-giese-und-rainer-furch-_arid,5193974.html</t>
+  </si>
+  <si>
+    <t>Als „dramatisches Leseduett“ kündigt die Zweibrücker Stadtbücherei den Livestream am Freitag, dem Welttag des Buches, mit Madeleine Giese und Reiner Furch an.
+Madeleine Giese beschreibt es so: „Die Lesung dauert etwa eine Stunde und handelt vom Lesen.
+Das geht von der Erfindung der Schrift über die ,Rechte des Lesers’, Drohinschriften in der Bibliothek von Barcelona, was mit Lesern passiert, die geliehene Bücher nicht zurückbringen, bis zu Liebeserklärungen ans Lesen und das Verzweifeln über Unmassen von Büchern.
+Die Lesung ist (hoffentlich) kurzweilig und interessant, unterhaltsam ist sie auf jeden Fall.
+Nahezu jeder Autor hat über das Lesen geschrieben, so gibt es witzige, nachdenkliche oder verrückte Zitate von Erasmus von Rotterdam bis Peter Bichsel.“Info</t>
+  </si>
+  <si>
+    <t>Schweizer Literaturwege – Wandern mit Dürrenmatt und Hesse</t>
+  </si>
+  <si>
+    <t>Bei den Stichworten Olten und Literatur denkt man unweigerlich an Namen wie Peter Bichsel, Alex Capus oder Pedro Lenz. Aber die Stadt an der Aare hat noch ...</t>
+  </si>
+  <si>
+    <t>https://www.derbund.ch/wandern-mit-duerrenmatt-und-hesse-389222132458</t>
+  </si>
+  <si>
+    <t>Schweizer Literaturwege – Wandern mit Dürrenmatt und Hesse Quer durch das ganze Land gibt es Spazier- und Wanderwege, dank denen es berühmte Schriftsteller, ihre Werke und die jeweilige Gegend zu entdecken gibt.
+Silvia Schaub (Travelcontent)Auf dem interaktiven Schweizer Schriftstellerweg in Olten laufen die Spuren verschiedener Autoren zusammen.
+Foto: Olten Literatour StadtDerzeit wird vor allem ein Schweizer Schriftsteller gefeiert: Friedrich Dürrenmatt, der in diesem Jahr seinen 100.
+Konolfingen (BE): Friedrich DürrenmattHerrliche Ausicht auf Alpen und Aaretal: Literaturweg Emmental beim Rüttli in der Gemeinde Häutlingen.
+Dieser basiert übrigens auf einem Plan, den Dürrenmatt einst aufgezeichnet hat und der sichtbar macht, wie stark ihn der Wohnort seiner Jugend literarisch inspiriert hat.</t>
+  </si>
+  <si>
+    <t>Zu Besuch beim Künstler Timmermahn - Der Mann, der das Neumarkt-Theater abfackeln wollte</t>
+  </si>
+  <si>
+    <t>Peter Bichsel meinte: «Wer Timmermahn beschreibt, tut ihm unrecht», und Bernhard Luginbühl nannte ihn «eine legendäre Figur». Als er vor einigen Jahren bei ...</t>
+  </si>
+  <si>
+    <t>https://www.tagesanzeiger.ch/der-mann-der-das-neumarkt-theater-abfackeln-wollte-185137434864</t>
+  </si>
+  <si>
+    <t>Zu Besuch beim Künstler Timmermahn – Der Mann, der das Neumarkt-Theater abfackeln wollte Was er tut, kann nicht mal er genau beschreiben.
+Für ihn sei das Leben gewissermassen normal verlaufen, er habe ja nichts erfunden, was es nicht schon gegeben habe, und er habe nie auf etwas hingearbeitet, sondern «immer aus la tschädere».
+Und da sei halt schon mal das eine oder andere Töffli geknackt oder der eine oder andere Kiosk überfallen worden.
+Timmermahn, der auf seinem Balkon Zigaretten in weniger als einer Minute wegraucht, scheint nicht übermässig gekränkt deswegen.
+Ziele habe er nie gehabt, beim Reisen lasse er sich ebenso treiben wie bei den Ausfahrten mit seiner Harley oder beim Verfassen seiner Geschichten.</t>
+  </si>
+  <si>
+    <t>Die Schweiz politisiert wie ein Volk von Buchhaltern</t>
+  </si>
+  <si>
+    <t>Der Schriftsteller Peter Bichsel schrieb einmal, die Schweiz habe sieben Finanzdepartemente. Über die Kosten werde «immer als Erstes diskutiert und oft als ...</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/meinung/die-schweiz-politisiert-wie-ein-volk-von-buchhaltern-ld.1623583</t>
+  </si>
+  <si>
+    <t>Die USA peilen zehn Jahre früher Klimaneutralität an, so wie Grossbritannien, Frankreich, Deutschland und die Schweiz.
+Ist die Politik, die jetzt vorliegt – mit einem Fördertopf hier, einer Abgabe da –, ist diese Politik wirklich die beste?
+Es kann sie nie geben: Was für die einen richtig ist, ist für die anderen falsch.
+Er wird nie Fernziele sehen und Fragen erkennen, die die Zukunft stellen wird.
+Die Schweiz profitiert vom weitverbreiteten Bewusstsein, dass «die Wirtschaft» wir alle sind.</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,7 +833,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,6 +856,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -229,24 +875,42 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -288,7 +952,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,9 +984,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,6 +1036,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,21 +1229,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="77" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -555,175 +1260,1037 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="H1" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44206</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44202</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44208</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <v>44208</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44218</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5">
+        <v>44219</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5">
+        <v>44215</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44226</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44220</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5">
+        <v>44222</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="5">
+        <v>44218</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="5">
+        <v>44226</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="5">
+        <v>44215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="5">
+        <v>44240</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="5">
+        <v>44237</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="5">
+        <v>44247</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5">
+        <v>44249</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="5">
+        <v>44252</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44242</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="5">
+        <v>44249</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="5">
+        <v>44255</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="5">
+        <v>44269</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="5">
+        <v>44259</v>
+      </c>
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="5">
+        <v>44260</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="5">
+        <v>44261</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="5">
+        <v>44262</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5">
+        <v>44263</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="5">
+        <v>44262</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="5">
+        <v>44298.863078703704</v>
+      </c>
+      <c r="E33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="5">
+        <v>44298.863078703704</v>
+      </c>
+      <c r="E34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="5">
+        <v>44298.863078703704</v>
+      </c>
+      <c r="E35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="5">
+        <v>44298.863078703704</v>
+      </c>
+      <c r="E36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="5">
+        <v>44298.863078703704</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="5">
+        <v>44298.863078703704</v>
+      </c>
+      <c r="E38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="5">
+        <v>44298.863078703704</v>
+      </c>
+      <c r="E39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="5">
+        <v>44298.86487827119</v>
+      </c>
+      <c r="E40" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="5">
+        <v>44307.865127314813</v>
+      </c>
+      <c r="E41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="5">
+        <v>44298.865127314813</v>
+      </c>
+      <c r="E42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="5">
+        <v>44298.865127314813</v>
+      </c>
+      <c r="E43" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="5">
+        <v>44321.865428240744</v>
+      </c>
+      <c r="E44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{E47FF524-01FC-4D28-B829-2B586A8E9B58}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{0C10A33F-BB15-47C9-9735-8590B2489DEC}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{95FC8EB4-1AFB-4597-8020-E6F6AE736CE1}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{B8F946F9-D341-4DAD-AC87-D1A7AAB26E45}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{994EDC51-7DB1-485D-8AAE-A819FE32A595}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{C0B2DD62-CCF0-445E-B0BD-4502F684BF4F}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{F1160E62-3A36-4A16-A97E-6B6E638B1241}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{87787A4A-BDC0-4308-8C9F-2AE845EBEE7A}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{553D073C-B63E-49D7-B645-3758349335D6}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{F5FE3873-272D-4AB6-ACDC-AFEF5A51F473}"/>
+    <hyperlink ref="F40" r:id="rId17" xr:uid="{6479C7A8-4BE8-497B-992C-5B297E847374}"/>
+    <hyperlink ref="F18" r:id="rId18" xr:uid="{D758D20C-2C9E-4FBC-8D9D-F5D0E48BDD03}"/>
+    <hyperlink ref="F19" r:id="rId19" xr:uid="{53BB75A0-ABA7-4062-BD37-D99F071DA825}"/>
+    <hyperlink ref="F20" r:id="rId20" xr:uid="{BA89B686-41B5-443F-B489-71C65C1E4BA0}"/>
+    <hyperlink ref="F21" r:id="rId21" xr:uid="{F9C39F8A-86E3-4A35-96CF-5B8B2098BBAD}"/>
+    <hyperlink ref="F22" r:id="rId22" xr:uid="{932F8133-42D1-434A-B1D2-ADBE7317CE38}"/>
+    <hyperlink ref="F23" r:id="rId23" xr:uid="{E135C1BF-3498-451F-8EF7-9EA18A5C4988}"/>
+    <hyperlink ref="F24" r:id="rId24" xr:uid="{1191577B-8ADB-4862-AD68-F6FD6A5713C0}"/>
+    <hyperlink ref="F25" r:id="rId25" xr:uid="{1DBD245C-A843-4E07-BF4F-3A451AA22D47}"/>
+    <hyperlink ref="F26" r:id="rId26" xr:uid="{BF9C39AC-C877-42F4-954E-36AC4273AEB5}"/>
+    <hyperlink ref="F27" r:id="rId27" xr:uid="{E96BE9C4-3475-4F91-8AA8-DC4F3FF5528D}"/>
+    <hyperlink ref="F28" r:id="rId28" xr:uid="{788A00AE-55C7-4A6C-9D61-45F000C87A29}"/>
+    <hyperlink ref="F29" r:id="rId29" xr:uid="{B1A8A308-D130-406C-BFE9-7F7F73ACC370}"/>
+    <hyperlink ref="F41" r:id="rId30" xr:uid="{BFA55667-EC0D-48AE-ADC1-3141C7F21D68}"/>
+    <hyperlink ref="F42" r:id="rId31" xr:uid="{867CC216-9367-4A5F-A68D-0761511CA9CE}"/>
+    <hyperlink ref="F43" r:id="rId32" xr:uid="{7E609A8E-38F7-41C1-A508-897A447535BF}"/>
+    <hyperlink ref="F44" r:id="rId33" xr:uid="{CCCBFBEA-36ED-4918-9741-DD7A89AE005E}"/>
+    <hyperlink ref="F30" r:id="rId34" display="https://www.tagblatt.ch/ostschweiz/kreuzlingen/live-der-ticker-zum-nachlesen-schulbehoerden-und-gemeindewahlen-im-thurgau-michael-staeheli-engel-ist-neuer-schulpraesident-in-amriswil-martina-erni-kruesi-weiterhin-schulpraesidentin-von-amlikon-holzhaeusern-alice-santschi-neue-schulpraesidentin-von-pfyn-ld.2109264" xr:uid="{F0CABEAA-17CA-42BF-A25F-20476F274B16}"/>
+    <hyperlink ref="F32" r:id="rId35" xr:uid="{DE0B23F0-6AD1-40B5-A2F9-99E752A96304}"/>
+    <hyperlink ref="F31" r:id="rId36" xr:uid="{8D9D335D-2906-47D8-93D7-D93AD41C0E86}"/>
+    <hyperlink ref="F33" r:id="rId37" xr:uid="{FEEF1262-491E-4DAC-A049-AF9F32B63CD2}"/>
+    <hyperlink ref="F34" r:id="rId38" xr:uid="{340852F6-79B1-48E9-9F05-0E84DC6E7BC1}"/>
+    <hyperlink ref="F35" r:id="rId39" xr:uid="{D5C65FC3-9CA0-4CBC-B313-D8E409026F8C}"/>
+    <hyperlink ref="F36" r:id="rId40" xr:uid="{17787DFB-6958-4150-A7E9-F05237224D12}"/>
+    <hyperlink ref="F37" r:id="rId41" xr:uid="{2C38CA86-E75E-4A91-BAF5-DECC5FCAB62F}"/>
+    <hyperlink ref="F38" r:id="rId42" xr:uid="{5DEC3CE1-32DA-4926-B263-00FEBF22A9F4}"/>
+    <hyperlink ref="F39" r:id="rId43" xr:uid="{4BC962B5-F74C-4A88-8992-D2565ED1F399}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId44"/>
 </worksheet>
 </file>